--- a/documentation/UC time spent.xlsx
+++ b/documentation/UC time spent.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d0272129/OneDrive - dm drogerie/4. Semester/SE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F8A757-FF29-3B41-9161-5D8FC0491C63}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16400" xr2:uid="{9316D68E-33E7-DB46-AB0B-0A279E2DCD34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blatt1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>UC </t>
   </si>
@@ -82,34 +72,71 @@
   </si>
   <si>
     <t>Refactoring</t>
+  </si>
+  <si>
+    <t>NEW Ucs</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Notifications2</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Signup2</t>
+  </si>
+  <si>
+    <t>Friends2</t>
+  </si>
+  <si>
+    <t>History2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF444444"/>
+      <color indexed="63"/>
       <name val="Inherit"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFFF6600"/>
+      <color indexed="53"/>
       <name val="Inherit"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,32 +151,134 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="20">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="15"/>
+    <cellStyle name="Comma [0]" xfId="16"/>
+    <cellStyle name="Currency" xfId="17"/>
+    <cellStyle name="Currency [0]" xfId="18"/>
+    <cellStyle name="Percent" xfId="19"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00444444"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,24 +573,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413A5E80-7608-814C-A553-C5BC4499381C}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="30.7142857142857" style="1"/>
+    <col min="2" max="2" width="16" style="1"/>
+    <col min="3" max="3" width="8.28571428571429" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="57.7142857142857" style="1"/>
+    <col min="6" max="6" width="7.14285714285714" style="1"/>
+    <col min="7" max="16384" width="11.7142857142857" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" hidden="1">
+    <row r="1" spans="1:7" ht="12.75" hidden="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +604,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -484,238 +614,382 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="12.75">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="12.75">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="12.75">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="12.75">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="12.75">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="12.75">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="12.75">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:1" ht="12.75">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -724,7 +998,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/documentation/UC time spent.xlsx
+++ b/documentation/UC time spent.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d0272129/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA41EAB0-7C4E-B444-AC53-B168B647A53E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>UC </t>
   </si>
@@ -96,17 +101,22 @@
   </si>
   <si>
     <t>History2</t>
+  </si>
+  <si>
+    <t>Estimation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="GENERAL"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,20 +133,23 @@
       <sz val="13"/>
       <color indexed="63"/>
       <name val="Inherit"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="53"/>
       <name val="Inherit"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,61 +164,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="20">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Comma" xfId="15"/>
-    <cellStyle name="Comma [0]" xfId="16"/>
-    <cellStyle name="Currency" xfId="17"/>
-    <cellStyle name="Currency [0]" xfId="18"/>
-    <cellStyle name="Percent" xfId="19"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20"/>
+  <cellStyles count="8">
+    <cellStyle name="Comma" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma [0]" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Currency [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Percent" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -274,7 +260,1288 @@
       <rgbColor rgb="00444444"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Implemented</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B67A-0241-846E-35BD989AE6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>New</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$F$17:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B67A-0241-846E-35BD989AE6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="809581791"/>
+        <c:axId val="809604671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="809581791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time in hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809604671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="809604671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Function Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809581791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD74C921-1925-8B44-A850-E439773EE68D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,433 +1840,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.7142857142857" style="1"/>
-    <col min="2" max="2" width="16" style="1"/>
-    <col min="3" max="3" width="8.28571428571429" style="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="57.7142857142857" style="1"/>
-    <col min="6" max="6" width="7.14285714285714" style="1"/>
-    <col min="7" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="30.6640625" style="2"/>
+    <col min="2" max="2" width="16" style="2"/>
+    <col min="3" max="3" width="8.33203125" style="2"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="57.6640625" style="2"/>
+    <col min="6" max="6" width="7.1640625" style="2"/>
+    <col min="7" max="16384" width="11.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" hidden="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="17" hidden="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>12</v>
       </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>27</v>
       </c>
+      <c r="G4" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>6</v>
       </c>
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>11</v>
       </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>18</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="12.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="1">
-        <v>3</v>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="2">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1">
-        <v>11</v>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2">
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="2">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="2">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/UC time spent.xlsx
+++ b/documentation/UC time spent.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d0272129/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA41EAB0-7C4E-B444-AC53-B168B647A53E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2730112E-B7BA-CC49-A44A-D051AF4AA9D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blatt1!$F$17:$F$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blatt1!$F$3:$F$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blatt1!$G$17:$G$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blatt1!$G$3:$G$6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -176,9 +182,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -356,6 +362,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:forward val="20"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -466,9 +473,7 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -483,22 +488,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +543,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -618,26 +622,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -749,26 +733,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -910,597 +874,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1843,432 +1216,432 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="2"/>
-    <col min="2" max="2" width="16" style="2"/>
-    <col min="3" max="3" width="8.33203125" style="2"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="57.6640625" style="2"/>
-    <col min="6" max="6" width="7.1640625" style="2"/>
-    <col min="7" max="16384" width="11.6640625" style="2"/>
+    <col min="1" max="1" width="30.6640625" style="1"/>
+    <col min="2" max="2" width="16" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="57.6640625" style="1"/>
+    <col min="6" max="6" width="7.1640625" style="1"/>
+    <col min="7" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" hidden="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>27</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>11</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1">
         <v>24</v>
       </c>
-      <c r="G20" s="2">
-        <v>24</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="2">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
         <v>14</v>
       </c>
     </row>
